--- a/data/clean/2023鳥類調查資料概況.xlsx
+++ b/data/clean/2023鳥類調查資料概況.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Survey_bird_List" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="590">
   <si>
     <t xml:space="preserve">NO</t>
   </si>
@@ -1060,6 +1061,729 @@
   </si>
   <si>
     <t xml:space="preserve">09:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鳥種名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">學名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">臺灣山鷓鴣 ◎ III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arborophila crudigularis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑長尾雉 ◎ II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syrmaticus mikado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">藍腹鷴 ◎ II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lophura swinhoii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">臺灣竹雞 ◎ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bambusicola sonorivox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">野鴿 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columba livia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">灰林鴿 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columba pulchricollis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金背鳩 ※ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streptopelia orientalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紅鳩 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streptopelia tranquebarica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">珠頸斑鳩 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spilopelia chinensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翠翼鳩 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chalcophaps indica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">綠鳩 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treron sieboldii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">噪鵑 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eudynamys scolopaceus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鷹鵑 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hierococcyx sparverioides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北方中杜鵑 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuculus optatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">叉尾雨燕 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apus pacificus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小雨燕 ※ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apus nipalensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小白鷺 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egretta garzetta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑冠麻鷺 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorsachius melanolophus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大冠鷲 ※ II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spilornis cheela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">熊鷹 I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nisaetus nipalensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">林鵰 II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ictinaetus malaiensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">松雀鷹 ※ II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accipiter virgatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黃嘴角鴞 ※ II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otus spilocephalus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鵂鶹 ※ II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taenioptynx brodiei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翠鳥 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcedo atthis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">五色鳥 ◎ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psilopogon nuchalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小啄木 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yungipicus canicapillus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大赤啄木 ※ II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dendrocopos leucotos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">綠啄木 II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picus canus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">灰喉山椒鳥 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pericrocotus solaris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">綠畫眉 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erpornis zantholeuca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">朱鸝 ※ II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oriolus traillii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大卷尾 ※ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dicrurus macrocercus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小卷尾 ※ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dicrurus aeneus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑枕藍鶲 ※ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypothymis azurea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">松鴉 ※ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garrulus glandarius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">臺灣藍鵲 ◎ III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urocissa caerulea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">樹鵲 ※ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dendrocitta formosae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">星鴉 ※ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nucifraga caryocatactes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巨嘴鴉 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corvus macrorhynchos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">煤山雀 ※ III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periparus ater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤腹山雀 ◎ II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sittiparus castaneoventris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青背山雀 ※ III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parus monticolus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黃山雀 ◎ II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machlolophus holsti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">褐頭鷦鶯 ※ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prinia inornata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">臺灣叢樹鶯 ◎ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locustella alishanensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">臺灣鷦眉 ◎ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pnoepyga formosana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">洋燕 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hirundo tahitica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">東方毛腳燕 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delichon dasypus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白環鸚嘴鵯 ※ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spizixos semitorques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">烏頭翁 ◎ II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pycnonotus taivanus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白頭翁 ※ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pycnonotus sinensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紅嘴黑鵯 ※ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypsipetes leucocephalus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">棕面鶯 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abroscopus albogularis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小鶯 ※ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horornis fortipes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深山鶯 ※ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horornis acanthizoides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紅頭山雀 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aegithalos concinnus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">褐頭花翼 ◎ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulvetta formosana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冠羽畫眉 ◎ III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuhina brunneiceps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斯氏繡眼 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zosterops simplex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山紅頭 ※ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyanoderma ruficeps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小彎嘴 ◎ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pomatorhinus musicus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大彎嘴 ◎ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erythrogenys erythrocnemis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">頭烏線 ※ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schoeniparus brunneus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">繡眼畫眉 ◎ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcippe morrisonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">臺灣噪眉 ◎ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trochalopteron morrisonianum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白耳畫眉 ◎ III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heterophasia auricularis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紋翼畫眉 ◎ III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actinodura morrisoniana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黃胸藪眉 ◎ III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liocichla steerii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">臺灣畫眉 ◎ II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garrulax taewanus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">臺灣白喉噪眉 ◎ II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pterorhinus ruficeps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">棕噪眉 ◎ II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pterorhinus poecilorhynchus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">火冠戴菊鳥 ◎ III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulus goodfellowi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">茶腹鳾 ※ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sitta europaea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">河烏 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinclus pallasii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白氏地鶇 /虎斑地鶇 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoothera aurea / Zoothera dauma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">灰背椋鳥 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sturnia sinensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">灰頭椋鳥 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sturnia malabarica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家八哥 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acridotheres tristis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白尾八哥 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acridotheres javanicus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白頭鶇 ◎ II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turdus niveiceps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤腹鶇 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turdus chrysolaus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紅尾鶲 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muscicapa ferruginea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白腰鵲鴝 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copsychus malabaricus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黃腹琉璃 ◎ III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niltava vivida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小翼鶇 ◎ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brachypteryx goodfellowi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">臺灣紫嘯鶇 ◎ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myophonus insularis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">野鴝 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calliope calliope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白尾鴝 ※ III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myiomela leucura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">栗背林鴝 ◎ III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarsiger johnstoniae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黃胸青鶲 ※ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficedula hyperythra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鉛色水鶇 ※ III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phoenicurus fuliginosus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黃尾鴝 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phoenicurus auroreus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">綠啄花 ※ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dicaeum minullum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紅胸啄花 ※ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dicaeum ignipectus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西方黃鶺鴒 / 東方黃鶺鴒 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motacilla flava / Motacilla tschutschensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻雀 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passer montanus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">灰鶺鴒 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motacilla cinerea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白鶺鴒 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motacilla alba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">臺灣朱雀 ◎ III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carpodacus formosanus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">灰鷽 ◎ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyrrhula owstoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白眉鵐 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emberiza tristrami</t>
   </si>
 </sst>
 </file>
@@ -4512,4 +5236,5634 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M1" t="s">
+        <v>361</v>
+      </c>
+      <c r="N1" t="s">
+        <v>362</v>
+      </c>
+      <c r="O1" t="s">
+        <v>363</v>
+      </c>
+      <c r="P1" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>365</v>
+      </c>
+      <c r="R1" t="s">
+        <v>366</v>
+      </c>
+      <c r="S1" t="s">
+        <v>367</v>
+      </c>
+      <c r="T1" t="s">
+        <v>368</v>
+      </c>
+      <c r="U1" t="s">
+        <v>369</v>
+      </c>
+      <c r="V1" t="s">
+        <v>370</v>
+      </c>
+      <c r="W1" t="s">
+        <v>371</v>
+      </c>
+      <c r="X1" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H2" t="s">
+        <v>387</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2" t="s">
+        <v>387</v>
+      </c>
+      <c r="M2" t="s">
+        <v>387</v>
+      </c>
+      <c r="N2"/>
+      <c r="O2" t="s">
+        <v>387</v>
+      </c>
+      <c r="P2" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>387</v>
+      </c>
+      <c r="R2" t="s">
+        <v>387</v>
+      </c>
+      <c r="S2" t="s">
+        <v>387</v>
+      </c>
+      <c r="T2" t="s">
+        <v>387</v>
+      </c>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2" t="s">
+        <v>387</v>
+      </c>
+      <c r="X2" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z2"/>
+      <c r="AA2" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB2"/>
+      <c r="AC2" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3" t="s">
+        <v>387</v>
+      </c>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4" t="s">
+        <v>387</v>
+      </c>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4" t="s">
+        <v>387</v>
+      </c>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G5" t="s">
+        <v>387</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5" t="s">
+        <v>387</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5" t="s">
+        <v>387</v>
+      </c>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y5"/>
+      <c r="Z5" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB5"/>
+      <c r="AC5" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6" t="s">
+        <v>387</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>396</v>
+      </c>
+      <c r="B7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7" t="s">
+        <v>387</v>
+      </c>
+      <c r="N7" t="s">
+        <v>387</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7" t="s">
+        <v>387</v>
+      </c>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7" t="s">
+        <v>387</v>
+      </c>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8" t="s">
+        <v>387</v>
+      </c>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>400</v>
+      </c>
+      <c r="B9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9" t="s">
+        <v>387</v>
+      </c>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>404</v>
+      </c>
+      <c r="B11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>406</v>
+      </c>
+      <c r="B12" t="s">
+        <v>407</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12" t="s">
+        <v>387</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12" t="s">
+        <v>387</v>
+      </c>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12" t="s">
+        <v>387</v>
+      </c>
+      <c r="S12"/>
+      <c r="T12" t="s">
+        <v>387</v>
+      </c>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH12"/>
+      <c r="AI12" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>408</v>
+      </c>
+      <c r="B13" t="s">
+        <v>409</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B14" t="s">
+        <v>411</v>
+      </c>
+      <c r="C14" t="s">
+        <v>387</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14" t="s">
+        <v>387</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14" t="s">
+        <v>387</v>
+      </c>
+      <c r="M14" t="s">
+        <v>387</v>
+      </c>
+      <c r="N14"/>
+      <c r="O14" t="s">
+        <v>387</v>
+      </c>
+      <c r="P14"/>
+      <c r="Q14" t="s">
+        <v>387</v>
+      </c>
+      <c r="R14" t="s">
+        <v>387</v>
+      </c>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14" t="s">
+        <v>387</v>
+      </c>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>412</v>
+      </c>
+      <c r="B15" t="s">
+        <v>413</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15" t="s">
+        <v>387</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15" t="s">
+        <v>387</v>
+      </c>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15" t="s">
+        <v>387</v>
+      </c>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>414</v>
+      </c>
+      <c r="B16" t="s">
+        <v>415</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>416</v>
+      </c>
+      <c r="B17" t="s">
+        <v>417</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17" t="s">
+        <v>387</v>
+      </c>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>387</v>
+      </c>
+      <c r="R17"/>
+      <c r="S17" t="s">
+        <v>387</v>
+      </c>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH17"/>
+      <c r="AI17" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>418</v>
+      </c>
+      <c r="B18" t="s">
+        <v>419</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18" t="s">
+        <v>387</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>420</v>
+      </c>
+      <c r="B19" t="s">
+        <v>421</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19" t="s">
+        <v>387</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>422</v>
+      </c>
+      <c r="B20" t="s">
+        <v>423</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20" t="s">
+        <v>387</v>
+      </c>
+      <c r="E20" t="s">
+        <v>387</v>
+      </c>
+      <c r="F20" t="s">
+        <v>387</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20" t="s">
+        <v>387</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20" t="s">
+        <v>387</v>
+      </c>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20" t="s">
+        <v>387</v>
+      </c>
+      <c r="P20"/>
+      <c r="Q20" t="s">
+        <v>387</v>
+      </c>
+      <c r="R20" t="s">
+        <v>387</v>
+      </c>
+      <c r="S20" t="s">
+        <v>387</v>
+      </c>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20" t="s">
+        <v>387</v>
+      </c>
+      <c r="X20" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA20"/>
+      <c r="AB20" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC20"/>
+      <c r="AD20" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>424</v>
+      </c>
+      <c r="B21" t="s">
+        <v>425</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>426</v>
+      </c>
+      <c r="B22" t="s">
+        <v>427</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>428</v>
+      </c>
+      <c r="B23" t="s">
+        <v>429</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>430</v>
+      </c>
+      <c r="B24" t="s">
+        <v>431</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24" t="s">
+        <v>387</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>432</v>
+      </c>
+      <c r="B25" t="s">
+        <v>433</v>
+      </c>
+      <c r="C25" t="s">
+        <v>387</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25" t="s">
+        <v>387</v>
+      </c>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25" t="s">
+        <v>387</v>
+      </c>
+      <c r="N25"/>
+      <c r="O25" t="s">
+        <v>387</v>
+      </c>
+      <c r="P25"/>
+      <c r="Q25" t="s">
+        <v>387</v>
+      </c>
+      <c r="R25" t="s">
+        <v>387</v>
+      </c>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25" t="s">
+        <v>387</v>
+      </c>
+      <c r="X25"/>
+      <c r="Y25" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z25"/>
+      <c r="AA25" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>434</v>
+      </c>
+      <c r="B26" t="s">
+        <v>435</v>
+      </c>
+      <c r="C26" t="s">
+        <v>387</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>436</v>
+      </c>
+      <c r="B27" t="s">
+        <v>437</v>
+      </c>
+      <c r="C27" t="s">
+        <v>387</v>
+      </c>
+      <c r="D27" t="s">
+        <v>387</v>
+      </c>
+      <c r="E27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F27" t="s">
+        <v>387</v>
+      </c>
+      <c r="G27" t="s">
+        <v>387</v>
+      </c>
+      <c r="H27" t="s">
+        <v>387</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27" t="s">
+        <v>387</v>
+      </c>
+      <c r="K27" t="s">
+        <v>387</v>
+      </c>
+      <c r="L27" t="s">
+        <v>387</v>
+      </c>
+      <c r="M27" t="s">
+        <v>387</v>
+      </c>
+      <c r="N27"/>
+      <c r="O27" t="s">
+        <v>387</v>
+      </c>
+      <c r="P27" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>387</v>
+      </c>
+      <c r="R27" t="s">
+        <v>387</v>
+      </c>
+      <c r="S27" t="s">
+        <v>387</v>
+      </c>
+      <c r="T27" t="s">
+        <v>387</v>
+      </c>
+      <c r="U27" t="s">
+        <v>387</v>
+      </c>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y27"/>
+      <c r="Z27" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>438</v>
+      </c>
+      <c r="B28" t="s">
+        <v>439</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28" t="s">
+        <v>387</v>
+      </c>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>440</v>
+      </c>
+      <c r="B29" t="s">
+        <v>441</v>
+      </c>
+      <c r="C29" t="s">
+        <v>387</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29" t="s">
+        <v>387</v>
+      </c>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>442</v>
+      </c>
+      <c r="B30" t="s">
+        <v>443</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30" t="s">
+        <v>387</v>
+      </c>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30"/>
+      <c r="AI30"/>
+      <c r="AJ30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>444</v>
+      </c>
+      <c r="B31" t="s">
+        <v>445</v>
+      </c>
+      <c r="C31" t="s">
+        <v>387</v>
+      </c>
+      <c r="D31" t="s">
+        <v>387</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31" t="s">
+        <v>387</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31" t="s">
+        <v>387</v>
+      </c>
+      <c r="K31"/>
+      <c r="L31" t="s">
+        <v>387</v>
+      </c>
+      <c r="M31" t="s">
+        <v>387</v>
+      </c>
+      <c r="N31"/>
+      <c r="O31" t="s">
+        <v>387</v>
+      </c>
+      <c r="P31"/>
+      <c r="Q31" t="s">
+        <v>387</v>
+      </c>
+      <c r="R31" t="s">
+        <v>387</v>
+      </c>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB31"/>
+      <c r="AC31" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF31"/>
+      <c r="AG31" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH31"/>
+      <c r="AI31" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>446</v>
+      </c>
+      <c r="B32" t="s">
+        <v>447</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32" t="s">
+        <v>387</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32" t="s">
+        <v>387</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32" t="s">
+        <v>387</v>
+      </c>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32" t="s">
+        <v>387</v>
+      </c>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD32"/>
+      <c r="AE32"/>
+      <c r="AF32"/>
+      <c r="AG32" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>448</v>
+      </c>
+      <c r="B33" t="s">
+        <v>449</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33" t="s">
+        <v>387</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33" t="s">
+        <v>387</v>
+      </c>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33" t="s">
+        <v>387</v>
+      </c>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI33"/>
+      <c r="AJ33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>450</v>
+      </c>
+      <c r="B34" t="s">
+        <v>451</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34" t="s">
+        <v>387</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34" t="s">
+        <v>387</v>
+      </c>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34" t="s">
+        <v>387</v>
+      </c>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+      <c r="AJ34" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>452</v>
+      </c>
+      <c r="B35" t="s">
+        <v>453</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35" t="s">
+        <v>387</v>
+      </c>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35" t="s">
+        <v>387</v>
+      </c>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>454</v>
+      </c>
+      <c r="B36" t="s">
+        <v>455</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36" t="s">
+        <v>387</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36" t="s">
+        <v>387</v>
+      </c>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36" t="s">
+        <v>387</v>
+      </c>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y36"/>
+      <c r="Z36" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI36"/>
+      <c r="AJ36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>456</v>
+      </c>
+      <c r="B37" t="s">
+        <v>457</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37" t="s">
+        <v>387</v>
+      </c>
+      <c r="M37" t="s">
+        <v>387</v>
+      </c>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>387</v>
+      </c>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37" t="s">
+        <v>387</v>
+      </c>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>458</v>
+      </c>
+      <c r="B38" t="s">
+        <v>459</v>
+      </c>
+      <c r="C38" t="s">
+        <v>387</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38" t="s">
+        <v>387</v>
+      </c>
+      <c r="F38" t="s">
+        <v>387</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI38"/>
+      <c r="AJ38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>460</v>
+      </c>
+      <c r="B39" t="s">
+        <v>461</v>
+      </c>
+      <c r="C39" t="s">
+        <v>387</v>
+      </c>
+      <c r="D39" t="s">
+        <v>387</v>
+      </c>
+      <c r="E39" t="s">
+        <v>387</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39" t="s">
+        <v>387</v>
+      </c>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39" t="s">
+        <v>387</v>
+      </c>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y39"/>
+      <c r="Z39" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
+      <c r="AG39"/>
+      <c r="AH39" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>462</v>
+      </c>
+      <c r="B40" t="s">
+        <v>463</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40" t="s">
+        <v>387</v>
+      </c>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+      <c r="AE40"/>
+      <c r="AF40"/>
+      <c r="AG40"/>
+      <c r="AH40"/>
+      <c r="AI40"/>
+      <c r="AJ40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>464</v>
+      </c>
+      <c r="B41" t="s">
+        <v>465</v>
+      </c>
+      <c r="C41" t="s">
+        <v>387</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41" t="s">
+        <v>387</v>
+      </c>
+      <c r="H41" t="s">
+        <v>387</v>
+      </c>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41" t="s">
+        <v>387</v>
+      </c>
+      <c r="L41" t="s">
+        <v>387</v>
+      </c>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>387</v>
+      </c>
+      <c r="R41" t="s">
+        <v>387</v>
+      </c>
+      <c r="S41" t="s">
+        <v>387</v>
+      </c>
+      <c r="T41" t="s">
+        <v>387</v>
+      </c>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41" t="s">
+        <v>387</v>
+      </c>
+      <c r="X41" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF41"/>
+      <c r="AG41"/>
+      <c r="AH41"/>
+      <c r="AI41"/>
+      <c r="AJ41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>466</v>
+      </c>
+      <c r="B42" t="s">
+        <v>467</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42" t="s">
+        <v>387</v>
+      </c>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42" t="s">
+        <v>387</v>
+      </c>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+      <c r="AE42" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF42"/>
+      <c r="AG42"/>
+      <c r="AH42"/>
+      <c r="AI42"/>
+      <c r="AJ42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>468</v>
+      </c>
+      <c r="B43" t="s">
+        <v>469</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43" t="s">
+        <v>387</v>
+      </c>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43"/>
+      <c r="AF43"/>
+      <c r="AG43"/>
+      <c r="AH43"/>
+      <c r="AI43"/>
+      <c r="AJ43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>470</v>
+      </c>
+      <c r="B44" t="s">
+        <v>471</v>
+      </c>
+      <c r="C44" t="s">
+        <v>387</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44" t="s">
+        <v>387</v>
+      </c>
+      <c r="H44"/>
+      <c r="I44" t="s">
+        <v>387</v>
+      </c>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44" t="s">
+        <v>387</v>
+      </c>
+      <c r="M44" t="s">
+        <v>387</v>
+      </c>
+      <c r="N44" t="s">
+        <v>387</v>
+      </c>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44" t="s">
+        <v>387</v>
+      </c>
+      <c r="R44" t="s">
+        <v>387</v>
+      </c>
+      <c r="S44"/>
+      <c r="T44" t="s">
+        <v>387</v>
+      </c>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44" t="s">
+        <v>387</v>
+      </c>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF44"/>
+      <c r="AG44"/>
+      <c r="AH44"/>
+      <c r="AI44"/>
+      <c r="AJ44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>472</v>
+      </c>
+      <c r="B45" t="s">
+        <v>473</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45" t="s">
+        <v>387</v>
+      </c>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45" t="s">
+        <v>387</v>
+      </c>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+      <c r="AG45"/>
+      <c r="AH45"/>
+      <c r="AI45"/>
+      <c r="AJ45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>474</v>
+      </c>
+      <c r="B46" t="s">
+        <v>475</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46" t="s">
+        <v>387</v>
+      </c>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+      <c r="AG46" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH46"/>
+      <c r="AI46"/>
+      <c r="AJ46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>476</v>
+      </c>
+      <c r="B47" t="s">
+        <v>477</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47" t="s">
+        <v>387</v>
+      </c>
+      <c r="O47" t="s">
+        <v>387</v>
+      </c>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47" t="s">
+        <v>387</v>
+      </c>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE47"/>
+      <c r="AF47"/>
+      <c r="AG47"/>
+      <c r="AH47"/>
+      <c r="AI47"/>
+      <c r="AJ47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>478</v>
+      </c>
+      <c r="B48" t="s">
+        <v>479</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48" t="s">
+        <v>387</v>
+      </c>
+      <c r="N48" t="s">
+        <v>387</v>
+      </c>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48" t="s">
+        <v>387</v>
+      </c>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48" t="s">
+        <v>387</v>
+      </c>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48"/>
+      <c r="AF48"/>
+      <c r="AG48"/>
+      <c r="AH48"/>
+      <c r="AI48"/>
+      <c r="AJ48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>480</v>
+      </c>
+      <c r="B49" t="s">
+        <v>481</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49" t="s">
+        <v>387</v>
+      </c>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+      <c r="AG49" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH49"/>
+      <c r="AI49"/>
+      <c r="AJ49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>482</v>
+      </c>
+      <c r="B50" t="s">
+        <v>483</v>
+      </c>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50" t="s">
+        <v>387</v>
+      </c>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50" t="s">
+        <v>387</v>
+      </c>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+      <c r="AG50"/>
+      <c r="AH50"/>
+      <c r="AI50"/>
+      <c r="AJ50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>484</v>
+      </c>
+      <c r="B51" t="s">
+        <v>485</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y51"/>
+      <c r="Z51" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+      <c r="AG51" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI51"/>
+      <c r="AJ51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>486</v>
+      </c>
+      <c r="B52" t="s">
+        <v>487</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC52"/>
+      <c r="AD52"/>
+      <c r="AE52"/>
+      <c r="AF52"/>
+      <c r="AG52" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI52"/>
+      <c r="AJ52" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>488</v>
+      </c>
+      <c r="B53" t="s">
+        <v>489</v>
+      </c>
+      <c r="C53"/>
+      <c r="D53" t="s">
+        <v>387</v>
+      </c>
+      <c r="E53" t="s">
+        <v>387</v>
+      </c>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53" t="s">
+        <v>387</v>
+      </c>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53" t="s">
+        <v>387</v>
+      </c>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+      <c r="AE53"/>
+      <c r="AF53"/>
+      <c r="AG53"/>
+      <c r="AH53"/>
+      <c r="AI53"/>
+      <c r="AJ53"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>490</v>
+      </c>
+      <c r="B54" t="s">
+        <v>491</v>
+      </c>
+      <c r="C54" t="s">
+        <v>387</v>
+      </c>
+      <c r="D54" t="s">
+        <v>387</v>
+      </c>
+      <c r="E54" t="s">
+        <v>387</v>
+      </c>
+      <c r="F54" t="s">
+        <v>387</v>
+      </c>
+      <c r="G54" t="s">
+        <v>387</v>
+      </c>
+      <c r="H54" t="s">
+        <v>387</v>
+      </c>
+      <c r="I54"/>
+      <c r="J54" t="s">
+        <v>387</v>
+      </c>
+      <c r="K54" t="s">
+        <v>387</v>
+      </c>
+      <c r="L54"/>
+      <c r="M54" t="s">
+        <v>387</v>
+      </c>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54" t="s">
+        <v>387</v>
+      </c>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54" t="s">
+        <v>387</v>
+      </c>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y54"/>
+      <c r="Z54" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE54"/>
+      <c r="AF54" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>492</v>
+      </c>
+      <c r="B55" t="s">
+        <v>493</v>
+      </c>
+      <c r="C55" t="s">
+        <v>387</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55" t="s">
+        <v>387</v>
+      </c>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55" t="s">
+        <v>387</v>
+      </c>
+      <c r="M55" t="s">
+        <v>387</v>
+      </c>
+      <c r="N55" t="s">
+        <v>387</v>
+      </c>
+      <c r="O55" t="s">
+        <v>387</v>
+      </c>
+      <c r="P55" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>387</v>
+      </c>
+      <c r="R55" t="s">
+        <v>387</v>
+      </c>
+      <c r="S55"/>
+      <c r="T55" t="s">
+        <v>387</v>
+      </c>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55" t="s">
+        <v>387</v>
+      </c>
+      <c r="X55"/>
+      <c r="Y55" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB55"/>
+      <c r="AC55" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE55"/>
+      <c r="AF55"/>
+      <c r="AG55"/>
+      <c r="AH55"/>
+      <c r="AI55"/>
+      <c r="AJ55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>494</v>
+      </c>
+      <c r="B56" t="s">
+        <v>495</v>
+      </c>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56" t="s">
+        <v>387</v>
+      </c>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56" t="s">
+        <v>387</v>
+      </c>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF56"/>
+      <c r="AG56" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH56"/>
+      <c r="AI56"/>
+      <c r="AJ56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>496</v>
+      </c>
+      <c r="B57" t="s">
+        <v>497</v>
+      </c>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57" t="s">
+        <v>387</v>
+      </c>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57" t="s">
+        <v>387</v>
+      </c>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57" t="s">
+        <v>387</v>
+      </c>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57" t="s">
+        <v>387</v>
+      </c>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+      <c r="AG57"/>
+      <c r="AH57"/>
+      <c r="AI57"/>
+      <c r="AJ57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>498</v>
+      </c>
+      <c r="B58" t="s">
+        <v>499</v>
+      </c>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58" t="s">
+        <v>387</v>
+      </c>
+      <c r="M58" t="s">
+        <v>387</v>
+      </c>
+      <c r="N58" t="s">
+        <v>387</v>
+      </c>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58" t="s">
+        <v>387</v>
+      </c>
+      <c r="R58" t="s">
+        <v>387</v>
+      </c>
+      <c r="S58"/>
+      <c r="T58" t="s">
+        <v>387</v>
+      </c>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+      <c r="AE58"/>
+      <c r="AF58"/>
+      <c r="AG58"/>
+      <c r="AH58"/>
+      <c r="AI58"/>
+      <c r="AJ58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>500</v>
+      </c>
+      <c r="B59" t="s">
+        <v>501</v>
+      </c>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59" t="s">
+        <v>387</v>
+      </c>
+      <c r="N59" t="s">
+        <v>387</v>
+      </c>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
+      <c r="AF59"/>
+      <c r="AG59"/>
+      <c r="AH59"/>
+      <c r="AI59"/>
+      <c r="AJ59"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>502</v>
+      </c>
+      <c r="B60" t="s">
+        <v>503</v>
+      </c>
+      <c r="C60" t="s">
+        <v>387</v>
+      </c>
+      <c r="D60" t="s">
+        <v>387</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60" t="s">
+        <v>387</v>
+      </c>
+      <c r="H60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I60" t="s">
+        <v>387</v>
+      </c>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60" t="s">
+        <v>387</v>
+      </c>
+      <c r="M60" t="s">
+        <v>387</v>
+      </c>
+      <c r="N60" t="s">
+        <v>387</v>
+      </c>
+      <c r="O60" t="s">
+        <v>387</v>
+      </c>
+      <c r="P60" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>387</v>
+      </c>
+      <c r="R60" t="s">
+        <v>387</v>
+      </c>
+      <c r="S60"/>
+      <c r="T60" t="s">
+        <v>387</v>
+      </c>
+      <c r="U60"/>
+      <c r="V60" t="s">
+        <v>387</v>
+      </c>
+      <c r="W60" t="s">
+        <v>387</v>
+      </c>
+      <c r="X60"/>
+      <c r="Y60" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+      <c r="AE60" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF60"/>
+      <c r="AG60"/>
+      <c r="AH60"/>
+      <c r="AI60"/>
+      <c r="AJ60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>504</v>
+      </c>
+      <c r="B61" t="s">
+        <v>505</v>
+      </c>
+      <c r="C61"/>
+      <c r="D61" t="s">
+        <v>387</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61" t="s">
+        <v>387</v>
+      </c>
+      <c r="H61" t="s">
+        <v>387</v>
+      </c>
+      <c r="I61"/>
+      <c r="J61" t="s">
+        <v>387</v>
+      </c>
+      <c r="K61" t="s">
+        <v>387</v>
+      </c>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61" t="s">
+        <v>387</v>
+      </c>
+      <c r="T61"/>
+      <c r="U61" t="s">
+        <v>387</v>
+      </c>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD61"/>
+      <c r="AE61"/>
+      <c r="AF61"/>
+      <c r="AG61"/>
+      <c r="AH61" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI61"/>
+      <c r="AJ61" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>506</v>
+      </c>
+      <c r="B62" t="s">
+        <v>507</v>
+      </c>
+      <c r="C62" t="s">
+        <v>387</v>
+      </c>
+      <c r="D62" t="s">
+        <v>387</v>
+      </c>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62" t="s">
+        <v>387</v>
+      </c>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62" t="s">
+        <v>387</v>
+      </c>
+      <c r="K62"/>
+      <c r="L62" t="s">
+        <v>387</v>
+      </c>
+      <c r="M62" t="s">
+        <v>387</v>
+      </c>
+      <c r="N62" t="s">
+        <v>387</v>
+      </c>
+      <c r="O62" t="s">
+        <v>387</v>
+      </c>
+      <c r="P62" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>387</v>
+      </c>
+      <c r="R62" t="s">
+        <v>387</v>
+      </c>
+      <c r="S62"/>
+      <c r="T62" t="s">
+        <v>387</v>
+      </c>
+      <c r="U62"/>
+      <c r="V62" t="s">
+        <v>387</v>
+      </c>
+      <c r="W62" t="s">
+        <v>387</v>
+      </c>
+      <c r="X62" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB62"/>
+      <c r="AC62" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE62"/>
+      <c r="AF62" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH62"/>
+      <c r="AI62" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>508</v>
+      </c>
+      <c r="B63" t="s">
+        <v>509</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63" t="s">
+        <v>387</v>
+      </c>
+      <c r="E63" t="s">
+        <v>387</v>
+      </c>
+      <c r="F63" t="s">
+        <v>387</v>
+      </c>
+      <c r="G63" t="s">
+        <v>387</v>
+      </c>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q63"/>
+      <c r="R63" t="s">
+        <v>387</v>
+      </c>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63" t="s">
+        <v>387</v>
+      </c>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC63"/>
+      <c r="AD63" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE63"/>
+      <c r="AF63" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>510</v>
+      </c>
+      <c r="B64" t="s">
+        <v>511</v>
+      </c>
+      <c r="C64"/>
+      <c r="D64" t="s">
+        <v>387</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64" t="s">
+        <v>387</v>
+      </c>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q64"/>
+      <c r="R64" t="s">
+        <v>387</v>
+      </c>
+      <c r="S64"/>
+      <c r="T64" t="s">
+        <v>387</v>
+      </c>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB64"/>
+      <c r="AC64" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE64"/>
+      <c r="AF64"/>
+      <c r="AG64" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>512</v>
+      </c>
+      <c r="B65" t="s">
+        <v>513</v>
+      </c>
+      <c r="C65" t="s">
+        <v>387</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65" t="s">
+        <v>387</v>
+      </c>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65" t="s">
+        <v>387</v>
+      </c>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65" t="s">
+        <v>387</v>
+      </c>
+      <c r="P65"/>
+      <c r="Q65" t="s">
+        <v>387</v>
+      </c>
+      <c r="R65" t="s">
+        <v>387</v>
+      </c>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65" t="s">
+        <v>387</v>
+      </c>
+      <c r="X65"/>
+      <c r="Y65" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB65"/>
+      <c r="AC65" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE65"/>
+      <c r="AF65" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH65"/>
+      <c r="AI65" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>514</v>
+      </c>
+      <c r="B66" t="s">
+        <v>515</v>
+      </c>
+      <c r="C66"/>
+      <c r="D66" t="s">
+        <v>387</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66" t="s">
+        <v>387</v>
+      </c>
+      <c r="G66" t="s">
+        <v>387</v>
+      </c>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66" t="s">
+        <v>387</v>
+      </c>
+      <c r="K66"/>
+      <c r="L66" t="s">
+        <v>387</v>
+      </c>
+      <c r="M66" t="s">
+        <v>387</v>
+      </c>
+      <c r="N66" t="s">
+        <v>387</v>
+      </c>
+      <c r="O66" t="s">
+        <v>387</v>
+      </c>
+      <c r="P66" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>387</v>
+      </c>
+      <c r="R66" t="s">
+        <v>387</v>
+      </c>
+      <c r="S66" t="s">
+        <v>387</v>
+      </c>
+      <c r="T66" t="s">
+        <v>387</v>
+      </c>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z66"/>
+      <c r="AA66" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB66"/>
+      <c r="AC66" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE66"/>
+      <c r="AF66" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ66"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>516</v>
+      </c>
+      <c r="B67" t="s">
+        <v>517</v>
+      </c>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67" t="s">
+        <v>387</v>
+      </c>
+      <c r="N67" t="s">
+        <v>387</v>
+      </c>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67" t="s">
+        <v>387</v>
+      </c>
+      <c r="U67"/>
+      <c r="V67" t="s">
+        <v>387</v>
+      </c>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+      <c r="AE67" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF67"/>
+      <c r="AG67"/>
+      <c r="AH67"/>
+      <c r="AI67"/>
+      <c r="AJ67"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>518</v>
+      </c>
+      <c r="B68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C68" t="s">
+        <v>387</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68" t="s">
+        <v>387</v>
+      </c>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68" t="s">
+        <v>387</v>
+      </c>
+      <c r="K68"/>
+      <c r="L68" t="s">
+        <v>387</v>
+      </c>
+      <c r="M68" t="s">
+        <v>387</v>
+      </c>
+      <c r="N68" t="s">
+        <v>387</v>
+      </c>
+      <c r="O68" t="s">
+        <v>387</v>
+      </c>
+      <c r="P68" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>387</v>
+      </c>
+      <c r="R68" t="s">
+        <v>387</v>
+      </c>
+      <c r="S68"/>
+      <c r="T68" t="s">
+        <v>387</v>
+      </c>
+      <c r="U68"/>
+      <c r="V68" t="s">
+        <v>387</v>
+      </c>
+      <c r="W68" t="s">
+        <v>387</v>
+      </c>
+      <c r="X68"/>
+      <c r="Y68" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ68"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>520</v>
+      </c>
+      <c r="B69" t="s">
+        <v>521</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69" t="s">
+        <v>387</v>
+      </c>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+      <c r="AE69"/>
+      <c r="AF69"/>
+      <c r="AG69"/>
+      <c r="AH69"/>
+      <c r="AI69"/>
+      <c r="AJ69"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>522</v>
+      </c>
+      <c r="B70" t="s">
+        <v>523</v>
+      </c>
+      <c r="C70" t="s">
+        <v>387</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70" t="s">
+        <v>387</v>
+      </c>
+      <c r="H70" t="s">
+        <v>387</v>
+      </c>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70" t="s">
+        <v>387</v>
+      </c>
+      <c r="L70" t="s">
+        <v>387</v>
+      </c>
+      <c r="M70" t="s">
+        <v>387</v>
+      </c>
+      <c r="N70" t="s">
+        <v>387</v>
+      </c>
+      <c r="O70" t="s">
+        <v>387</v>
+      </c>
+      <c r="P70" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>387</v>
+      </c>
+      <c r="R70" t="s">
+        <v>387</v>
+      </c>
+      <c r="S70"/>
+      <c r="T70" t="s">
+        <v>387</v>
+      </c>
+      <c r="U70"/>
+      <c r="V70" t="s">
+        <v>387</v>
+      </c>
+      <c r="W70" t="s">
+        <v>387</v>
+      </c>
+      <c r="X70"/>
+      <c r="Y70" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AD70" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE70"/>
+      <c r="AF70"/>
+      <c r="AG70"/>
+      <c r="AH70" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI70"/>
+      <c r="AJ70"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>524</v>
+      </c>
+      <c r="B71" t="s">
+        <v>525</v>
+      </c>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71" t="s">
+        <v>387</v>
+      </c>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+      <c r="AE71"/>
+      <c r="AF71"/>
+      <c r="AG71"/>
+      <c r="AH71" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI71"/>
+      <c r="AJ71"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>526</v>
+      </c>
+      <c r="B72" t="s">
+        <v>527</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72" t="s">
+        <v>387</v>
+      </c>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72" t="s">
+        <v>387</v>
+      </c>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+      <c r="AE72"/>
+      <c r="AF72"/>
+      <c r="AG72"/>
+      <c r="AH72"/>
+      <c r="AI72"/>
+      <c r="AJ72"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>528</v>
+      </c>
+      <c r="B73" t="s">
+        <v>529</v>
+      </c>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73" t="s">
+        <v>387</v>
+      </c>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73" t="s">
+        <v>387</v>
+      </c>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73" t="s">
+        <v>387</v>
+      </c>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE73"/>
+      <c r="AF73"/>
+      <c r="AG73" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH73"/>
+      <c r="AI73"/>
+      <c r="AJ73"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>530</v>
+      </c>
+      <c r="B74" t="s">
+        <v>531</v>
+      </c>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74" t="s">
+        <v>387</v>
+      </c>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+      <c r="AE74"/>
+      <c r="AF74"/>
+      <c r="AG74"/>
+      <c r="AH74"/>
+      <c r="AI74"/>
+      <c r="AJ74"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>532</v>
+      </c>
+      <c r="B75" t="s">
+        <v>533</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75" t="s">
+        <v>387</v>
+      </c>
+      <c r="O75" t="s">
+        <v>387</v>
+      </c>
+      <c r="P75"/>
+      <c r="Q75" t="s">
+        <v>387</v>
+      </c>
+      <c r="R75" t="s">
+        <v>387</v>
+      </c>
+      <c r="S75"/>
+      <c r="T75" t="s">
+        <v>387</v>
+      </c>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+      <c r="AE75" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF75"/>
+      <c r="AG75"/>
+      <c r="AH75"/>
+      <c r="AI75"/>
+      <c r="AJ75"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>534</v>
+      </c>
+      <c r="B76" t="s">
+        <v>535</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76" t="s">
+        <v>387</v>
+      </c>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+      <c r="AE76"/>
+      <c r="AF76"/>
+      <c r="AG76"/>
+      <c r="AH76"/>
+      <c r="AI76"/>
+      <c r="AJ76"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>536</v>
+      </c>
+      <c r="B77" t="s">
+        <v>537</v>
+      </c>
+      <c r="C77" t="s">
+        <v>387</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+      <c r="AE77"/>
+      <c r="AF77"/>
+      <c r="AG77"/>
+      <c r="AH77"/>
+      <c r="AI77"/>
+      <c r="AJ77"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>538</v>
+      </c>
+      <c r="B78" t="s">
+        <v>539</v>
+      </c>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC78"/>
+      <c r="AD78"/>
+      <c r="AE78"/>
+      <c r="AF78"/>
+      <c r="AG78"/>
+      <c r="AH78"/>
+      <c r="AI78"/>
+      <c r="AJ78"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>540</v>
+      </c>
+      <c r="B79" t="s">
+        <v>541</v>
+      </c>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79" t="s">
+        <v>387</v>
+      </c>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+      <c r="AE79"/>
+      <c r="AF79"/>
+      <c r="AG79"/>
+      <c r="AH79"/>
+      <c r="AI79"/>
+      <c r="AJ79"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>542</v>
+      </c>
+      <c r="B80" t="s">
+        <v>543</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+      <c r="AE80"/>
+      <c r="AF80"/>
+      <c r="AG80"/>
+      <c r="AH80"/>
+      <c r="AI80"/>
+      <c r="AJ80" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>544</v>
+      </c>
+      <c r="B81" t="s">
+        <v>545</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81" t="s">
+        <v>387</v>
+      </c>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+      <c r="AE81"/>
+      <c r="AF81"/>
+      <c r="AG81"/>
+      <c r="AH81"/>
+      <c r="AI81"/>
+      <c r="AJ81"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>546</v>
+      </c>
+      <c r="B82" t="s">
+        <v>547</v>
+      </c>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82" t="s">
+        <v>387</v>
+      </c>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+      <c r="AE82"/>
+      <c r="AF82"/>
+      <c r="AG82"/>
+      <c r="AH82"/>
+      <c r="AI82"/>
+      <c r="AJ82"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>548</v>
+      </c>
+      <c r="B83" t="s">
+        <v>549</v>
+      </c>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD83"/>
+      <c r="AE83"/>
+      <c r="AF83"/>
+      <c r="AG83"/>
+      <c r="AH83"/>
+      <c r="AI83"/>
+      <c r="AJ83"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>550</v>
+      </c>
+      <c r="B84" t="s">
+        <v>551</v>
+      </c>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84" t="s">
+        <v>387</v>
+      </c>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84" t="s">
+        <v>387</v>
+      </c>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+      <c r="AE84" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF84"/>
+      <c r="AG84"/>
+      <c r="AH84"/>
+      <c r="AI84"/>
+      <c r="AJ84"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>552</v>
+      </c>
+      <c r="B85" t="s">
+        <v>553</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85" t="s">
+        <v>387</v>
+      </c>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AD85"/>
+      <c r="AE85"/>
+      <c r="AF85"/>
+      <c r="AG85"/>
+      <c r="AH85"/>
+      <c r="AI85"/>
+      <c r="AJ85"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>554</v>
+      </c>
+      <c r="B86" t="s">
+        <v>555</v>
+      </c>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86" t="s">
+        <v>387</v>
+      </c>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86" t="s">
+        <v>387</v>
+      </c>
+      <c r="M86" t="s">
+        <v>387</v>
+      </c>
+      <c r="N86" t="s">
+        <v>387</v>
+      </c>
+      <c r="O86" t="s">
+        <v>387</v>
+      </c>
+      <c r="P86" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>387</v>
+      </c>
+      <c r="R86" t="s">
+        <v>387</v>
+      </c>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE86"/>
+      <c r="AF86"/>
+      <c r="AG86"/>
+      <c r="AH86"/>
+      <c r="AI86"/>
+      <c r="AJ86"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>556</v>
+      </c>
+      <c r="B87" t="s">
+        <v>557</v>
+      </c>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87" t="s">
+        <v>387</v>
+      </c>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87" t="s">
+        <v>387</v>
+      </c>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87" t="s">
+        <v>387</v>
+      </c>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87" t="s">
+        <v>387</v>
+      </c>
+      <c r="X87"/>
+      <c r="Y87"/>
+      <c r="Z87"/>
+      <c r="AA87"/>
+      <c r="AB87"/>
+      <c r="AC87"/>
+      <c r="AD87"/>
+      <c r="AE87"/>
+      <c r="AF87"/>
+      <c r="AG87"/>
+      <c r="AH87"/>
+      <c r="AI87"/>
+      <c r="AJ87"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>558</v>
+      </c>
+      <c r="B88" t="s">
+        <v>559</v>
+      </c>
+      <c r="C88" t="s">
+        <v>387</v>
+      </c>
+      <c r="D88"/>
+      <c r="E88" t="s">
+        <v>387</v>
+      </c>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88" t="s">
+        <v>387</v>
+      </c>
+      <c r="K88"/>
+      <c r="L88" t="s">
+        <v>387</v>
+      </c>
+      <c r="M88" t="s">
+        <v>387</v>
+      </c>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88"/>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88"/>
+      <c r="W88"/>
+      <c r="X88"/>
+      <c r="Y88" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB88"/>
+      <c r="AC88"/>
+      <c r="AD88"/>
+      <c r="AE88"/>
+      <c r="AF88"/>
+      <c r="AG88"/>
+      <c r="AH88"/>
+      <c r="AI88" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ88"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>560</v>
+      </c>
+      <c r="B89" t="s">
+        <v>561</v>
+      </c>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89"/>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89"/>
+      <c r="V89"/>
+      <c r="W89"/>
+      <c r="X89"/>
+      <c r="Y89"/>
+      <c r="Z89"/>
+      <c r="AA89"/>
+      <c r="AB89"/>
+      <c r="AC89"/>
+      <c r="AD89"/>
+      <c r="AE89"/>
+      <c r="AF89"/>
+      <c r="AG89"/>
+      <c r="AH89" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI89"/>
+      <c r="AJ89"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>562</v>
+      </c>
+      <c r="B90" t="s">
+        <v>563</v>
+      </c>
+      <c r="C90" t="s">
+        <v>387</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90" t="s">
+        <v>387</v>
+      </c>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90" t="s">
+        <v>387</v>
+      </c>
+      <c r="M90" t="s">
+        <v>387</v>
+      </c>
+      <c r="N90" t="s">
+        <v>387</v>
+      </c>
+      <c r="O90" t="s">
+        <v>387</v>
+      </c>
+      <c r="P90" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>387</v>
+      </c>
+      <c r="R90" t="s">
+        <v>387</v>
+      </c>
+      <c r="S90"/>
+      <c r="T90" t="s">
+        <v>387</v>
+      </c>
+      <c r="U90"/>
+      <c r="V90"/>
+      <c r="W90" t="s">
+        <v>387</v>
+      </c>
+      <c r="X90"/>
+      <c r="Y90"/>
+      <c r="Z90" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB90"/>
+      <c r="AC90"/>
+      <c r="AD90"/>
+      <c r="AE90"/>
+      <c r="AF90" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG90"/>
+      <c r="AH90"/>
+      <c r="AI90"/>
+      <c r="AJ90"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>564</v>
+      </c>
+      <c r="B91" t="s">
+        <v>565</v>
+      </c>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91" t="s">
+        <v>387</v>
+      </c>
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91"/>
+      <c r="S91"/>
+      <c r="T91"/>
+      <c r="U91"/>
+      <c r="V91" t="s">
+        <v>387</v>
+      </c>
+      <c r="W91"/>
+      <c r="X91"/>
+      <c r="Y91" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z91"/>
+      <c r="AA91"/>
+      <c r="AB91"/>
+      <c r="AC91"/>
+      <c r="AD91"/>
+      <c r="AE91" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF91"/>
+      <c r="AG91"/>
+      <c r="AH91"/>
+      <c r="AI91"/>
+      <c r="AJ91"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>566</v>
+      </c>
+      <c r="B92" t="s">
+        <v>567</v>
+      </c>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92" t="s">
+        <v>387</v>
+      </c>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+      <c r="S92"/>
+      <c r="T92" t="s">
+        <v>387</v>
+      </c>
+      <c r="U92"/>
+      <c r="V92"/>
+      <c r="W92"/>
+      <c r="X92"/>
+      <c r="Y92"/>
+      <c r="Z92"/>
+      <c r="AA92"/>
+      <c r="AB92"/>
+      <c r="AC92"/>
+      <c r="AD92"/>
+      <c r="AE92"/>
+      <c r="AF92"/>
+      <c r="AG92"/>
+      <c r="AH92"/>
+      <c r="AI92"/>
+      <c r="AJ92"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>568</v>
+      </c>
+      <c r="B93" t="s">
+        <v>569</v>
+      </c>
+      <c r="C93" t="s">
+        <v>387</v>
+      </c>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93" t="s">
+        <v>387</v>
+      </c>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93"/>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93"/>
+      <c r="V93"/>
+      <c r="W93"/>
+      <c r="X93"/>
+      <c r="Y93"/>
+      <c r="Z93"/>
+      <c r="AA93"/>
+      <c r="AB93"/>
+      <c r="AC93"/>
+      <c r="AD93"/>
+      <c r="AE93"/>
+      <c r="AF93"/>
+      <c r="AG93"/>
+      <c r="AH93"/>
+      <c r="AI93"/>
+      <c r="AJ93"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>570</v>
+      </c>
+      <c r="B94" t="s">
+        <v>571</v>
+      </c>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+      <c r="U94"/>
+      <c r="V94"/>
+      <c r="W94"/>
+      <c r="X94"/>
+      <c r="Y94"/>
+      <c r="Z94"/>
+      <c r="AA94"/>
+      <c r="AB94"/>
+      <c r="AC94"/>
+      <c r="AD94"/>
+      <c r="AE94"/>
+      <c r="AF94"/>
+      <c r="AG94"/>
+      <c r="AH94"/>
+      <c r="AI94"/>
+      <c r="AJ94" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>572</v>
+      </c>
+      <c r="B95" t="s">
+        <v>573</v>
+      </c>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95"/>
+      <c r="V95"/>
+      <c r="W95"/>
+      <c r="X95"/>
+      <c r="Y95"/>
+      <c r="Z95"/>
+      <c r="AA95"/>
+      <c r="AB95"/>
+      <c r="AC95"/>
+      <c r="AD95"/>
+      <c r="AE95"/>
+      <c r="AF95"/>
+      <c r="AG95" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH95"/>
+      <c r="AI95"/>
+      <c r="AJ95"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>574</v>
+      </c>
+      <c r="B96" t="s">
+        <v>575</v>
+      </c>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96" t="s">
+        <v>387</v>
+      </c>
+      <c r="M96" t="s">
+        <v>387</v>
+      </c>
+      <c r="N96"/>
+      <c r="O96" t="s">
+        <v>387</v>
+      </c>
+      <c r="P96" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>387</v>
+      </c>
+      <c r="R96" t="s">
+        <v>387</v>
+      </c>
+      <c r="S96"/>
+      <c r="T96" t="s">
+        <v>387</v>
+      </c>
+      <c r="U96"/>
+      <c r="V96"/>
+      <c r="W96"/>
+      <c r="X96"/>
+      <c r="Y96"/>
+      <c r="Z96"/>
+      <c r="AA96"/>
+      <c r="AB96"/>
+      <c r="AC96"/>
+      <c r="AD96"/>
+      <c r="AE96"/>
+      <c r="AF96"/>
+      <c r="AG96"/>
+      <c r="AH96"/>
+      <c r="AI96"/>
+      <c r="AJ96"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>576</v>
+      </c>
+      <c r="B97" t="s">
+        <v>577</v>
+      </c>
+      <c r="C97"/>
+      <c r="D97" t="s">
+        <v>387</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97"/>
+      <c r="S97"/>
+      <c r="T97"/>
+      <c r="U97"/>
+      <c r="V97"/>
+      <c r="W97"/>
+      <c r="X97"/>
+      <c r="Y97"/>
+      <c r="Z97"/>
+      <c r="AA97"/>
+      <c r="AB97"/>
+      <c r="AC97"/>
+      <c r="AD97"/>
+      <c r="AE97"/>
+      <c r="AF97"/>
+      <c r="AG97"/>
+      <c r="AH97"/>
+      <c r="AI97"/>
+      <c r="AJ97"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>578</v>
+      </c>
+      <c r="B98" t="s">
+        <v>579</v>
+      </c>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98" t="s">
+        <v>387</v>
+      </c>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98"/>
+      <c r="S98"/>
+      <c r="T98"/>
+      <c r="U98"/>
+      <c r="V98"/>
+      <c r="W98"/>
+      <c r="X98"/>
+      <c r="Y98"/>
+      <c r="Z98"/>
+      <c r="AA98"/>
+      <c r="AB98"/>
+      <c r="AC98"/>
+      <c r="AD98"/>
+      <c r="AE98"/>
+      <c r="AF98"/>
+      <c r="AG98"/>
+      <c r="AH98"/>
+      <c r="AI98"/>
+      <c r="AJ98" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>580</v>
+      </c>
+      <c r="B99" t="s">
+        <v>581</v>
+      </c>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99" t="s">
+        <v>387</v>
+      </c>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+      <c r="Q99"/>
+      <c r="R99"/>
+      <c r="S99"/>
+      <c r="T99"/>
+      <c r="U99"/>
+      <c r="V99"/>
+      <c r="W99"/>
+      <c r="X99"/>
+      <c r="Y99"/>
+      <c r="Z99"/>
+      <c r="AA99"/>
+      <c r="AB99"/>
+      <c r="AC99"/>
+      <c r="AD99"/>
+      <c r="AE99"/>
+      <c r="AF99"/>
+      <c r="AG99"/>
+      <c r="AH99"/>
+      <c r="AI99"/>
+      <c r="AJ99"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>582</v>
+      </c>
+      <c r="B100" t="s">
+        <v>583</v>
+      </c>
+      <c r="C100" t="s">
+        <v>387</v>
+      </c>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
+      <c r="R100"/>
+      <c r="S100"/>
+      <c r="T100"/>
+      <c r="U100"/>
+      <c r="V100"/>
+      <c r="W100"/>
+      <c r="X100"/>
+      <c r="Y100"/>
+      <c r="Z100"/>
+      <c r="AA100"/>
+      <c r="AB100"/>
+      <c r="AC100"/>
+      <c r="AD100"/>
+      <c r="AE100"/>
+      <c r="AF100"/>
+      <c r="AG100"/>
+      <c r="AH100"/>
+      <c r="AI100"/>
+      <c r="AJ100"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>584</v>
+      </c>
+      <c r="B101" t="s">
+        <v>585</v>
+      </c>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101" t="s">
+        <v>387</v>
+      </c>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+      <c r="R101"/>
+      <c r="S101"/>
+      <c r="T101"/>
+      <c r="U101"/>
+      <c r="V101"/>
+      <c r="W101"/>
+      <c r="X101"/>
+      <c r="Y101"/>
+      <c r="Z101"/>
+      <c r="AA101"/>
+      <c r="AB101"/>
+      <c r="AC101"/>
+      <c r="AD101"/>
+      <c r="AE101"/>
+      <c r="AF101"/>
+      <c r="AG101"/>
+      <c r="AH101"/>
+      <c r="AI101"/>
+      <c r="AJ101"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>586</v>
+      </c>
+      <c r="B102" t="s">
+        <v>587</v>
+      </c>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102" t="s">
+        <v>387</v>
+      </c>
+      <c r="O102"/>
+      <c r="P102"/>
+      <c r="Q102"/>
+      <c r="R102"/>
+      <c r="S102"/>
+      <c r="T102"/>
+      <c r="U102"/>
+      <c r="V102"/>
+      <c r="W102"/>
+      <c r="X102"/>
+      <c r="Y102"/>
+      <c r="Z102"/>
+      <c r="AA102"/>
+      <c r="AB102"/>
+      <c r="AC102"/>
+      <c r="AD102"/>
+      <c r="AE102"/>
+      <c r="AF102"/>
+      <c r="AG102"/>
+      <c r="AH102"/>
+      <c r="AI102"/>
+      <c r="AJ102"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>588</v>
+      </c>
+      <c r="B103" t="s">
+        <v>589</v>
+      </c>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103" t="s">
+        <v>387</v>
+      </c>
+      <c r="O103"/>
+      <c r="P103"/>
+      <c r="Q103"/>
+      <c r="R103"/>
+      <c r="S103"/>
+      <c r="T103"/>
+      <c r="U103"/>
+      <c r="V103"/>
+      <c r="W103"/>
+      <c r="X103"/>
+      <c r="Y103"/>
+      <c r="Z103"/>
+      <c r="AA103"/>
+      <c r="AB103"/>
+      <c r="AC103"/>
+      <c r="AD103"/>
+      <c r="AE103"/>
+      <c r="AF103"/>
+      <c r="AG103"/>
+      <c r="AH103"/>
+      <c r="AI103"/>
+      <c r="AJ103"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>